--- a/data-raw/unhcr_2021/iati_document_link.xlsx
+++ b/data-raw/unhcr_2021/iati_document_link.xlsx
@@ -402,7 +402,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://innovation.unhcr.org  </t>
+          <t>http://innovation.unhcr.org  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -427,7 +427,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9307,7 +9307,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10898,7 +10898,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13192,7 +13192,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13858,7 +13858,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -13969,7 +13969,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14302,7 +14302,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14339,7 +14339,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14450,7 +14450,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14524,7 +14524,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14598,7 +14598,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15042,7 +15042,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15264,7 +15264,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15412,7 +15412,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15597,7 +15597,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15745,7 +15745,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15782,7 +15782,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15819,7 +15819,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15930,7 +15930,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -15967,7 +15967,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16226,7 +16226,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16300,7 +16300,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16522,7 +16522,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16559,7 +16559,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16670,7 +16670,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16707,7 +16707,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16744,7 +16744,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17114,7 +17114,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17188,7 +17188,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17262,7 +17262,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17447,7 +17447,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17521,7 +17521,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17558,7 +17558,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17669,7 +17669,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17854,7 +17854,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -17965,7 +17965,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18039,7 +18039,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18076,7 +18076,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18150,7 +18150,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18224,7 +18224,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18298,7 +18298,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18372,7 +18372,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18520,7 +18520,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18557,7 +18557,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18594,7 +18594,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18668,7 +18668,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18742,7 +18742,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18779,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18816,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18853,7 +18853,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19038,7 +19038,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19186,7 +19186,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19260,7 +19260,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19334,7 +19334,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19371,7 +19371,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19408,7 +19408,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19445,7 +19445,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19482,7 +19482,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19519,7 +19519,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19556,7 +19556,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19630,7 +19630,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19667,7 +19667,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19704,7 +19704,7 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19741,7 +19741,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19778,7 +19778,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19852,7 +19852,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19926,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -19963,7 +19963,7 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20000,7 +20000,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20037,7 +20037,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20222,7 +20222,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20259,7 +20259,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20333,7 +20333,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20370,7 +20370,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20407,7 +20407,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20444,7 +20444,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20481,7 +20481,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20592,7 +20592,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20666,7 +20666,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20703,7 +20703,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20740,7 +20740,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20814,7 +20814,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20851,7 +20851,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20925,7 +20925,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20962,7 +20962,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21036,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21110,7 +21110,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21147,7 +21147,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21184,7 +21184,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21258,7 +21258,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21406,7 +21406,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21517,7 +21517,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21554,7 +21554,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21628,7 +21628,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21665,7 +21665,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21702,7 +21702,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21739,7 +21739,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21776,7 +21776,7 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21850,7 +21850,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21924,7 +21924,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -21998,7 +21998,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22072,7 +22072,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22109,7 +22109,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22146,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22183,7 +22183,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22294,7 +22294,7 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22331,7 +22331,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22405,7 +22405,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22442,7 +22442,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22479,7 +22479,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22516,7 +22516,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22590,7 +22590,7 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22627,7 +22627,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22664,7 +22664,7 @@
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22738,7 +22738,7 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22886,7 +22886,7 @@
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22923,7 +22923,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22960,7 +22960,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23034,7 +23034,7 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23071,7 +23071,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23145,7 +23145,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23182,7 +23182,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23219,7 +23219,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23293,7 +23293,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23367,7 +23367,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23404,7 +23404,7 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23441,7 +23441,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23515,7 +23515,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23552,7 +23552,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23589,7 +23589,7 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23663,7 +23663,7 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23700,7 +23700,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23848,7 +23848,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23885,7 +23885,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23922,7 +23922,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23959,7 +23959,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -23996,7 +23996,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24070,7 +24070,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24107,7 +24107,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24144,7 +24144,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24181,7 +24181,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24292,7 +24292,7 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24403,7 +24403,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24440,7 +24440,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24477,7 +24477,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24514,7 +24514,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24551,7 +24551,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24588,7 +24588,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24625,7 +24625,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24699,7 +24699,7 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24773,7 +24773,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24921,7 +24921,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24958,7 +24958,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25032,7 +25032,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25069,7 +25069,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25106,7 +25106,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25143,7 +25143,7 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25180,7 +25180,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25217,7 +25217,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25254,7 +25254,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25328,7 +25328,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25365,7 +25365,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25402,7 +25402,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25439,7 +25439,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25513,7 +25513,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25624,7 +25624,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25661,7 +25661,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25698,7 +25698,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25735,7 +25735,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25772,7 +25772,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25809,7 +25809,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25883,7 +25883,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25920,7 +25920,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25957,7 +25957,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -25994,7 +25994,7 @@
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26031,7 +26031,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26068,7 +26068,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26105,7 +26105,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26216,7 +26216,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26253,7 +26253,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26327,7 +26327,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26364,7 +26364,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26401,7 +26401,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26438,7 +26438,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26475,7 +26475,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26512,7 +26512,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26549,7 +26549,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26586,7 +26586,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26623,7 +26623,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26660,7 +26660,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26734,7 +26734,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26808,7 +26808,7 @@
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26845,7 +26845,7 @@
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26919,7 +26919,7 @@
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26956,7 +26956,7 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -26993,7 +26993,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27030,7 +27030,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27067,7 +27067,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27104,7 +27104,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27178,7 +27178,7 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27215,7 +27215,7 @@
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27252,7 +27252,7 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27289,7 +27289,7 @@
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27326,7 +27326,7 @@
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27363,7 +27363,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27400,7 +27400,7 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27437,7 +27437,7 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27511,7 +27511,7 @@
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27585,7 +27585,7 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27622,7 +27622,7 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27659,7 +27659,7 @@
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27696,7 +27696,7 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27733,7 +27733,7 @@
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27770,7 +27770,7 @@
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27807,7 +27807,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27844,7 +27844,7 @@
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27918,7 +27918,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -27992,7 +27992,7 @@
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28029,7 +28029,7 @@
       </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28066,7 +28066,7 @@
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28103,7 +28103,7 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28177,7 +28177,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28214,7 +28214,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28251,7 +28251,7 @@
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28288,7 +28288,7 @@
       </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28325,7 +28325,7 @@
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28362,7 +28362,7 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28399,7 +28399,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28436,7 +28436,7 @@
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28473,7 +28473,7 @@
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28510,7 +28510,7 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28547,7 +28547,7 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28584,7 +28584,7 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28621,7 +28621,7 @@
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28658,7 +28658,7 @@
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28695,7 +28695,7 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28732,7 +28732,7 @@
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28769,7 +28769,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28843,7 +28843,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28880,7 +28880,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28917,7 +28917,7 @@
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28954,7 +28954,7 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -28991,7 +28991,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29028,7 +29028,7 @@
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29065,7 +29065,7 @@
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29102,7 +29102,7 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29139,7 +29139,7 @@
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29176,7 +29176,7 @@
       </c>
       <c r="G779" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29213,7 +29213,7 @@
       </c>
       <c r="G780" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29250,7 +29250,7 @@
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29287,7 +29287,7 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29324,7 +29324,7 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29361,7 +29361,7 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29398,7 +29398,7 @@
       </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29435,7 +29435,7 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29472,7 +29472,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29509,7 +29509,7 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29546,7 +29546,7 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29583,7 +29583,7 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29620,7 +29620,7 @@
       </c>
       <c r="G791" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29657,7 +29657,7 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29694,7 +29694,7 @@
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29731,7 +29731,7 @@
       </c>
       <c r="G794" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29768,7 +29768,7 @@
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29805,7 +29805,7 @@
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29842,7 +29842,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29879,7 +29879,7 @@
       </c>
       <c r="G798" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29916,7 +29916,7 @@
       </c>
       <c r="G799" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29953,7 +29953,7 @@
       </c>
       <c r="G800" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -29990,7 +29990,7 @@
       </c>
       <c r="G801" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30027,7 +30027,7 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30064,7 +30064,7 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30101,7 +30101,7 @@
       </c>
       <c r="G804" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30138,7 +30138,7 @@
       </c>
       <c r="G805" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30175,7 +30175,7 @@
       </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30212,7 +30212,7 @@
       </c>
       <c r="G807" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30249,7 +30249,7 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30286,7 +30286,7 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30323,7 +30323,7 @@
       </c>
       <c r="G810" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
@@ -30397,7 +30397,7 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-12</t>
         </is>
       </c>
     </row>
